--- a/progamer data/progamer.xlsx
+++ b/progamer data/progamer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로게이머 명단" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="832">
   <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,10 +613,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1314,14 +1310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2609,10 +2597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김정균.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3090,6 +3074,118 @@
   </si>
   <si>
     <t>Senan.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_USERID</t>
+  </si>
+  <si>
+    <t>M_PASSWORD</t>
+  </si>
+  <si>
+    <t>M_NAME</t>
+  </si>
+  <si>
+    <t>M_NICK</t>
+  </si>
+  <si>
+    <t>M_EMAIL</t>
+  </si>
+  <si>
+    <t>M_TEL</t>
+  </si>
+  <si>
+    <t>M_ROLE</t>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_SEQ</t>
+  </si>
+  <si>
+    <t>B_MAIN_SEQ</t>
+  </si>
+  <si>
+    <t>B_LAYER</t>
+  </si>
+  <si>
+    <t>B_DATE</t>
+  </si>
+  <si>
+    <t>B_TIME</t>
+  </si>
+  <si>
+    <t>B_AUTH</t>
+  </si>
+  <si>
+    <t>B_TITLE</t>
+  </si>
+  <si>
+    <t>B_CONTENT</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE_SEQ</t>
+  </si>
+  <si>
+    <t>FILE_BOARD_SEQ</t>
+  </si>
+  <si>
+    <t>FILE_ORIGIN_NAME</t>
+  </si>
+  <si>
+    <t>FILE_NAME</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3886,7 +3982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -3915,16 +4011,16 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3932,22 +4028,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3955,7 +4051,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
@@ -3965,10 +4061,10 @@
         <v>18</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I3" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3976,22 +4072,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3999,28 +4095,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4028,28 +4124,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4057,28 +4153,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H7" t="s">
         <v>284</v>
       </c>
-      <c r="H7" t="s">
-        <v>285</v>
-      </c>
       <c r="I7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4086,28 +4182,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I8" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4115,25 +4211,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I9" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4141,25 +4237,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4167,28 +4263,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4196,25 +4292,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I12" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4222,25 +4318,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I13" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
@@ -4248,28 +4344,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G14" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H14" t="s">
         <v>290</v>
       </c>
-      <c r="H14" t="s">
-        <v>291</v>
-      </c>
       <c r="I14" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4283,16 +4379,16 @@
         <v>32</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4311,7 +4407,7 @@
       </c>
       <c r="F16" s="44"/>
       <c r="I16" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4322,22 +4418,22 @@
         <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I17" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4348,17 +4444,17 @@
         <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="46"/>
       <c r="I18" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4369,22 +4465,22 @@
         <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I19" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4395,22 +4491,22 @@
         <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I20" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4421,22 +4517,22 @@
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4447,25 +4543,25 @@
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G22" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" t="s">
         <v>292</v>
       </c>
-      <c r="H22" t="s">
-        <v>293</v>
-      </c>
       <c r="I22" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4476,22 +4572,22 @@
         <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I23" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4499,22 +4595,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I24" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -4522,28 +4618,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G25" t="s">
+        <v>294</v>
+      </c>
+      <c r="H25" t="s">
         <v>295</v>
       </c>
-      <c r="H25" t="s">
-        <v>296</v>
-      </c>
       <c r="I25" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -4551,7 +4647,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -4561,7 +4657,7 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -4569,25 +4665,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I27" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -4595,25 +4691,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I28" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -4621,25 +4717,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I29" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4647,28 +4743,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -4676,28 +4772,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I31" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4705,25 +4801,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I32" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4731,20 +4827,20 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F33" s="6"/>
       <c r="I33" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4752,22 +4848,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I34" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4775,7 +4871,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>45</v>
@@ -4785,7 +4881,7 @@
       </c>
       <c r="F35" s="6"/>
       <c r="I35" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4793,25 +4889,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I36" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4819,28 +4915,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G37" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="H37" t="s">
-        <v>304</v>
-      </c>
       <c r="I37" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4848,28 +4944,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G38" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" t="s">
         <v>305</v>
       </c>
-      <c r="H38" t="s">
-        <v>306</v>
-      </c>
       <c r="I38" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4877,22 +4973,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I39" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4900,28 +4996,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
+        <v>307</v>
+      </c>
+      <c r="H40" t="s">
         <v>308</v>
       </c>
-      <c r="H40" t="s">
-        <v>309</v>
-      </c>
       <c r="I40" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4929,25 +5025,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I41" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4955,28 +5051,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I42" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4984,25 +5080,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I43" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5010,25 +5106,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I44" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5036,25 +5132,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I45" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5062,22 +5158,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="47" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I46" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5085,22 +5181,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I47" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5108,22 +5204,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I48" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5131,20 +5227,20 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F49" s="6"/>
       <c r="I49" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5152,25 +5248,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I50" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5178,22 +5274,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I51" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5201,28 +5297,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I52" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5230,25 +5326,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I53" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5256,28 +5352,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F54" s="47" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5285,25 +5381,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I55" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5311,25 +5407,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I56" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5337,22 +5433,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I57" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5360,25 +5456,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C58" s="14" t="s">
         <v>68</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="47" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I58" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -5386,7 +5482,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>69</v>
@@ -5397,7 +5493,7 @@
       </c>
       <c r="F59" s="11"/>
       <c r="I59" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -5405,25 +5501,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I60" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -5431,25 +5527,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F61" s="47" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I61" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -5457,28 +5553,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F62" s="47" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
+        <v>313</v>
+      </c>
+      <c r="H62" t="s">
         <v>314</v>
       </c>
-      <c r="H62" t="s">
-        <v>315</v>
-      </c>
       <c r="I62" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -5486,25 +5582,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F63" s="47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="H63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I63" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -5512,28 +5608,28 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F64" s="47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I64" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -5541,25 +5637,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I65" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5567,28 +5663,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I66" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5596,28 +5692,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="47" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G67" t="s">
+        <v>318</v>
+      </c>
+      <c r="H67" t="s">
         <v>319</v>
       </c>
-      <c r="H67" t="s">
-        <v>320</v>
-      </c>
       <c r="I67" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5625,22 +5721,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C68" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F68" s="47" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I68" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5648,22 +5744,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I69" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5671,28 +5767,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I70" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5700,25 +5796,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F71" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I71" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5726,25 +5822,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F72" s="47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I72" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5752,28 +5848,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F73" s="47" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I73" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5781,28 +5877,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F74" s="47" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I74" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5810,25 +5906,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F75" s="47" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I75" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5836,28 +5932,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F76" s="47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I76" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5865,28 +5961,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="47" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I77" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5894,25 +5990,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="47" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I78" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5920,28 +6016,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F79" s="47" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I79" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5949,22 +6045,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F80" s="47" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I80" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5972,25 +6068,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F81" s="47" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I81" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5998,25 +6094,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C82" s="14" t="s">
         <v>91</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F82" s="47" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I82" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6024,25 +6120,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F83" s="47" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H83" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I83" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6050,25 +6146,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F84" s="47" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I84" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6076,28 +6172,28 @@
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F85" s="47" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I85" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6105,25 +6201,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="47" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I86" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6131,28 +6227,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G87" t="s">
+        <v>335</v>
+      </c>
+      <c r="H87" t="s">
         <v>336</v>
       </c>
-      <c r="H87" t="s">
-        <v>337</v>
-      </c>
       <c r="I87" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6160,25 +6256,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F88" s="47" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I88" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6186,28 +6282,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="47" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I89" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6215,25 +6311,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="47" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I90" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6241,25 +6337,25 @@
         <v>90</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F91" s="47" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I91" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6267,28 +6363,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F92" s="47" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I92" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6296,25 +6392,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F93" s="47" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I93" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -6322,22 +6418,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I94" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -6345,22 +6441,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C95" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E95" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F95" s="47" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I95" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -6368,25 +6464,25 @@
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>105</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F96" s="47" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I96" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -6394,25 +6490,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F97" s="47" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I97" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -6420,28 +6516,28 @@
         <v>97</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F98" s="47" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G98" t="s">
+        <v>341</v>
+      </c>
+      <c r="H98" t="s">
         <v>342</v>
       </c>
-      <c r="H98" t="s">
-        <v>343</v>
-      </c>
       <c r="I98" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -6449,28 +6545,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F99" s="47" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I99" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -6478,28 +6574,28 @@
         <v>99</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F100" s="47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G100" t="s">
+        <v>344</v>
+      </c>
+      <c r="H100" t="s">
         <v>345</v>
       </c>
-      <c r="H100" t="s">
-        <v>346</v>
-      </c>
       <c r="I100" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6507,25 +6603,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F101" s="47" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I101" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6533,28 +6629,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F102" s="47" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I102" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6562,25 +6658,25 @@
         <v>102</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F103" s="47" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I103" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6588,25 +6684,25 @@
         <v>103</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F104" s="47" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I104" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6614,28 +6710,28 @@
         <v>104</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F105" s="47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I105" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6643,28 +6739,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D106" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F106" s="47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G106" t="s">
+        <v>348</v>
+      </c>
+      <c r="H106" t="s">
         <v>349</v>
       </c>
-      <c r="H106" t="s">
-        <v>350</v>
-      </c>
       <c r="I106" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6672,22 +6768,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C107" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E107" s="15" t="s">
         <v>17</v>
       </c>
       <c r="F107" s="47" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I107" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6695,7 +6791,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>117</v>
@@ -6705,7 +6801,7 @@
         <v>18</v>
       </c>
       <c r="I108" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6713,7 +6809,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C109" s="11" t="s">
         <v>118</v>
@@ -6724,7 +6820,7 @@
       </c>
       <c r="F109" s="11"/>
       <c r="I109" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6732,25 +6828,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F110" s="47" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I110" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6758,25 +6854,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F111" s="47" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I111" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6784,25 +6880,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F112" s="47" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I112" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6810,22 +6906,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="47" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I113" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6833,25 +6929,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I114" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6859,25 +6955,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="47" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I115" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6885,25 +6981,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F116" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I116" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6911,25 +7007,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I117" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6937,25 +7033,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F118" s="42" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I118" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6963,22 +7059,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>22</v>
       </c>
       <c r="F119" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I119" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6986,22 +7082,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F120" s="49" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I120" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -7013,10 +7109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7024,7 +7120,7 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7076,7 +7172,7 @@
         <v>148</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>152</v>
@@ -7099,12 +7195,10 @@
         <v>149</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="G3" s="27" t="s">
-        <v>153</v>
-      </c>
+      <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
@@ -7120,12 +7214,10 @@
         <v>150</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F4" s="31"/>
-      <c r="G4" s="27" t="s">
-        <v>153</v>
-      </c>
+      <c r="G4" s="27"/>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -7134,14 +7226,14 @@
     <row r="5" spans="1:11">
       <c r="A5" s="29"/>
       <c r="B5" s="30" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="27"/>
@@ -7160,12 +7252,10 @@
         <v>151</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="27" t="s">
-        <v>153</v>
-      </c>
+      <c r="G6" s="27"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -7174,14 +7264,14 @@
     <row r="7" spans="1:11">
       <c r="A7" s="29"/>
       <c r="B7" s="30" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -7193,14 +7283,14 @@
     <row r="8" spans="1:11">
       <c r="A8" s="29"/>
       <c r="B8" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -7212,14 +7302,14 @@
     <row r="9" spans="1:11">
       <c r="A9" s="29"/>
       <c r="B9" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
@@ -7231,19 +7321,17 @@
     <row r="10" spans="1:11">
       <c r="A10" s="29"/>
       <c r="B10" s="33" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
-        <v>682</v>
-      </c>
+      <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34" t="s">
         <v>142</v>
@@ -7304,13 +7392,19 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="21" t="s">
-        <v>358</v>
+        <v>806</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="D14" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -7319,12 +7413,16 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="25" t="s">
-        <v>359</v>
+        <v>807</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="26" t="s">
+        <v>800</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>821</v>
+      </c>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -7336,8 +7434,12 @@
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>819</v>
+      </c>
       <c r="F16" s="31"/>
       <c r="G16" s="27"/>
       <c r="H16" s="31"/>
@@ -7349,8 +7451,12 @@
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>819</v>
+      </c>
       <c r="F17" s="31"/>
       <c r="G17" s="27"/>
       <c r="H17" s="31"/>
@@ -7362,8 +7468,12 @@
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>819</v>
+      </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7375,8 +7485,12 @@
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>820</v>
+      </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
@@ -7388,8 +7502,12 @@
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>820</v>
+      </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
@@ -7435,6 +7553,398 @@
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="25" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A25" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="21" t="s">
+        <v>828</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="32"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30" t="s">
+        <v>815</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="29"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="39"/>
+    </row>
+    <row r="36" spans="1:11" ht="17.25" thickBot="1"/>
+    <row r="37" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A37" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="21" t="s">
+        <v>830</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>822</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="24"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26" t="s">
+        <v>823</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="28"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>826</v>
+      </c>
+      <c r="F41" s="31"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="32"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="32"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="29"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
+    </row>
+    <row r="47" spans="1:11" ht="17.25" thickBot="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7461,24 +7971,24 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -7489,7 +7999,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>5</v>
@@ -7500,7 +8010,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -7511,7 +8021,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -7520,15 +8030,15 @@
         <v>35055</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -7537,15 +8047,15 @@
         <v>35328</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -7554,15 +8064,15 @@
         <v>35949</v>
       </c>
       <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
-      </c>
-      <c r="E7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
@@ -7571,15 +8081,15 @@
         <v>36348</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
@@ -7588,15 +8098,15 @@
         <v>35192</v>
       </c>
       <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" t="s">
         <v>287</v>
-      </c>
-      <c r="E9" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
@@ -7607,7 +8117,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -7616,15 +8126,15 @@
         <v>35869</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>14</v>
@@ -7633,12 +8143,12 @@
         <v>36537</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
@@ -7647,12 +8157,12 @@
         <v>36853</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>16</v>
@@ -7661,15 +8171,15 @@
         <v>34392</v>
       </c>
       <c r="D14" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" t="s">
         <v>290</v>
-      </c>
-      <c r="E14" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -7680,7 +8190,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>33</v>
@@ -7689,7 +8199,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>25</v>
@@ -7698,12 +8208,12 @@
         <v>35597</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>26</v>
@@ -7712,7 +8222,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>27</v>
@@ -7721,12 +8231,12 @@
         <v>36395</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>28</v>
@@ -7735,12 +8245,12 @@
         <v>36953</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>29</v>
@@ -7749,12 +8259,12 @@
         <v>36818</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>30</v>
@@ -7763,15 +8273,15 @@
         <v>36153</v>
       </c>
       <c r="D22" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" t="s">
         <v>292</v>
-      </c>
-      <c r="E22" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>31</v>
@@ -7780,23 +8290,23 @@
         <v>37198</v>
       </c>
       <c r="D23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>35</v>
@@ -7805,15 +8315,15 @@
         <v>33067</v>
       </c>
       <c r="D25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" t="s">
         <v>295</v>
-      </c>
-      <c r="E25" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>36</v>
@@ -7821,7 +8331,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>37</v>
@@ -7830,12 +8340,12 @@
         <v>35719</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>38</v>
@@ -7844,12 +8354,12 @@
         <v>36463</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>39</v>
@@ -7858,12 +8368,12 @@
         <v>35102</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>41</v>
@@ -7872,15 +8382,15 @@
         <v>35456</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>40</v>
@@ -7889,15 +8399,15 @@
         <v>35361</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>42</v>
@@ -7906,12 +8416,12 @@
         <v>35015</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>43</v>
@@ -7920,7 +8430,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>44</v>
@@ -7931,7 +8441,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>45</v>
@@ -7940,7 +8450,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>46</v>
@@ -7949,12 +8459,12 @@
         <v>32311</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>47</v>
@@ -7963,15 +8473,15 @@
         <v>36358</v>
       </c>
       <c r="D37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" t="s">
         <v>303</v>
-      </c>
-      <c r="E37" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>48</v>
@@ -7980,15 +8490,15 @@
         <v>33829</v>
       </c>
       <c r="D38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" t="s">
         <v>305</v>
-      </c>
-      <c r="E38" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>49</v>
@@ -7999,7 +8509,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>50</v>
@@ -8008,15 +8518,15 @@
         <v>35952</v>
       </c>
       <c r="D40" t="s">
+        <v>307</v>
+      </c>
+      <c r="E40" t="s">
         <v>308</v>
-      </c>
-      <c r="E40" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>51</v>
@@ -8025,12 +8535,12 @@
         <v>36729</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>52</v>
@@ -8039,15 +8549,15 @@
         <v>35569</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>53</v>
@@ -8056,12 +8566,12 @@
         <v>36621</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>54</v>
@@ -8070,12 +8580,12 @@
         <v>36347</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>55</v>
@@ -8084,12 +8594,12 @@
         <v>35521</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>56</v>
@@ -8098,7 +8608,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>57</v>
@@ -8107,7 +8617,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>58</v>
@@ -8116,7 +8626,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>59</v>
@@ -8125,7 +8635,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>60</v>
@@ -8134,12 +8644,12 @@
         <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>61</v>
@@ -8150,7 +8660,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>62</v>
@@ -8159,15 +8669,15 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>63</v>
@@ -8176,12 +8686,12 @@
         <v>21</v>
       </c>
       <c r="E53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>64</v>
@@ -8190,15 +8700,15 @@
         <v>21</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>65</v>
@@ -8207,12 +8717,12 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>66</v>
@@ -8221,12 +8731,12 @@
         <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>67</v>
@@ -8237,7 +8747,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>68</v>
@@ -8246,12 +8756,12 @@
         <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>69</v>
@@ -8260,7 +8770,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>70</v>
@@ -8269,12 +8779,12 @@
         <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>71</v>
@@ -8283,12 +8793,12 @@
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>72</v>
@@ -8297,15 +8807,15 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" t="s">
         <v>314</v>
-      </c>
-      <c r="E62" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>73</v>
@@ -8314,12 +8824,12 @@
         <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>74</v>
@@ -8328,15 +8838,15 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>75</v>
@@ -8345,12 +8855,12 @@
         <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>76</v>
@@ -8359,15 +8869,15 @@
         <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>77</v>
@@ -8376,15 +8886,15 @@
         <v>22</v>
       </c>
       <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
         <v>319</v>
-      </c>
-      <c r="E67" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>78</v>
@@ -8395,7 +8905,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>79</v>
@@ -8406,7 +8916,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>80</v>
@@ -8415,15 +8925,15 @@
         <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E70" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>81</v>
@@ -8432,12 +8942,12 @@
         <v>24</v>
       </c>
       <c r="E71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>82</v>
@@ -8446,29 +8956,29 @@
         <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C73" s="11">
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>83</v>
@@ -8477,15 +8987,15 @@
         <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>84</v>
@@ -8494,12 +9004,12 @@
         <v>21</v>
       </c>
       <c r="E75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>85</v>
@@ -8508,15 +9018,15 @@
         <v>23</v>
       </c>
       <c r="D76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>86</v>
@@ -8525,15 +9035,15 @@
         <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>87</v>
@@ -8542,12 +9052,12 @@
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>88</v>
@@ -8556,15 +9066,15 @@
         <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>89</v>
@@ -8575,7 +9085,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B81" s="16" t="s">
         <v>90</v>
@@ -8584,12 +9094,12 @@
         <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>91</v>
@@ -8598,12 +9108,12 @@
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>92</v>
@@ -8612,12 +9122,12 @@
         <v>30</v>
       </c>
       <c r="E83" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>93</v>
@@ -8626,12 +9136,12 @@
         <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>94</v>
@@ -8640,15 +9150,15 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>95</v>
@@ -8657,12 +9167,12 @@
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>96</v>
@@ -8671,15 +9181,15 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
+        <v>335</v>
+      </c>
+      <c r="E87" t="s">
         <v>336</v>
-      </c>
-      <c r="E87" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>97</v>
@@ -8688,12 +9198,12 @@
         <v>19</v>
       </c>
       <c r="E88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>98</v>
@@ -8702,15 +9212,15 @@
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>99</v>
@@ -8719,12 +9229,12 @@
         <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>100</v>
@@ -8733,12 +9243,12 @@
         <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>101</v>
@@ -8747,15 +9257,15 @@
         <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E92" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>102</v>
@@ -8764,12 +9274,12 @@
         <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B94" s="16" t="s">
         <v>103</v>
@@ -8780,7 +9290,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>104</v>
@@ -8791,7 +9301,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>105</v>
@@ -8800,12 +9310,12 @@
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>106</v>
@@ -8814,12 +9324,12 @@
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>107</v>
@@ -8828,15 +9338,15 @@
         <v>24</v>
       </c>
       <c r="D98" t="s">
+        <v>341</v>
+      </c>
+      <c r="E98" t="s">
         <v>342</v>
-      </c>
-      <c r="E98" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>108</v>
@@ -8845,15 +9355,15 @@
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E99" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>109</v>
@@ -8862,15 +9372,15 @@
         <v>26</v>
       </c>
       <c r="D100" t="s">
+        <v>344</v>
+      </c>
+      <c r="E100" t="s">
         <v>345</v>
-      </c>
-      <c r="E100" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>110</v>
@@ -8879,12 +9389,12 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>111</v>
@@ -8893,15 +9403,15 @@
         <v>20</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>112</v>
@@ -8910,12 +9420,12 @@
         <v>22</v>
       </c>
       <c r="E103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>113</v>
@@ -8924,12 +9434,12 @@
         <v>19</v>
       </c>
       <c r="E104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>114</v>
@@ -8938,15 +9448,15 @@
         <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>115</v>
@@ -8955,15 +9465,15 @@
         <v>22</v>
       </c>
       <c r="D106" t="s">
+        <v>348</v>
+      </c>
+      <c r="E106" t="s">
         <v>349</v>
-      </c>
-      <c r="E106" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>116</v>
@@ -8974,7 +9484,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B108" s="11" t="s">
         <v>117</v>
@@ -8983,7 +9493,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>118</v>
@@ -8992,7 +9502,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>119</v>
@@ -9001,12 +9511,12 @@
         <v>21</v>
       </c>
       <c r="E110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B111" s="11" t="s">
         <v>120</v>
@@ -9015,12 +9525,12 @@
         <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>121</v>
@@ -9029,12 +9539,12 @@
         <v>19</v>
       </c>
       <c r="E112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>122</v>
@@ -9045,7 +9555,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>123</v>
@@ -9054,12 +9564,12 @@
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>124</v>
@@ -9068,12 +9578,12 @@
         <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>125</v>
@@ -9082,46 +9592,46 @@
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E117" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E118" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B119" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
